--- a/uebung2_ringpolygon (version 1).xlsb.xlsx
+++ b/uebung2_ringpolygon (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E7961-9123-46E7-9948-2066D21D9F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5AFEE-6CE7-4E36-BD94-1C361990E5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="291">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -887,6 +887,39 @@
   </si>
   <si>
     <t>s [m] gem</t>
+  </si>
+  <si>
+    <t>D aus Strecke</t>
+  </si>
+  <si>
+    <t>s(d,m)</t>
+  </si>
+  <si>
+    <t>s(m,l)</t>
+  </si>
+  <si>
+    <t>Vector L,M</t>
+  </si>
+  <si>
+    <t>L (mittelwert)</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Entfernung UTM-reduziert</t>
+  </si>
+  <si>
+    <t>ym</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>ds</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1118,7 +1151,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1213,10 +1247,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$AK$8:$AK$25</c:f>
+              <c:f>Tabelle1!$AK$8:$AK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,16 +1304,19 @@
                 </c:pt>
                 <c:pt idx="17" formatCode="0.000">
                   <c:v>60.493348382721777</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>64.626158732612254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$AL$8:$AL$25</c:f>
+              <c:f>Tabelle1!$AL$8:$AL$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1333,6 +1370,9 @@
                 </c:pt>
                 <c:pt idx="17" formatCode="0.000">
                   <c:v>156.42966547287244</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>21.320902306568343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,61 +1655,61 @@
                   <c:v>32691225.013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32691046.149110068</c:v>
+                  <c:v>32691046.220222555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32691058.555756066</c:v>
+                  <c:v>32691058.621974505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32691232.324325249</c:v>
+                  <c:v>32691232.32147146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32691225.028095227</c:v>
+                  <c:v>32691225.028123934</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32691208.125894014</c:v>
+                  <c:v>32691208.132358596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32691060.149341226</c:v>
+                  <c:v>32691060.215222109</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32691074.393949252</c:v>
+                  <c:v>32691074.454166088</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32691067.874070495</c:v>
+                  <c:v>32691067.936754584</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32691082.16418593</c:v>
+                  <c:v>32691082.221275061</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32691109.71453901</c:v>
+                  <c:v>32691109.760230456</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32691172.497133248</c:v>
+                  <c:v>32691172.518198069</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32691195.681035489</c:v>
+                  <c:v>32691195.692734241</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32691076.347295664</c:v>
+                  <c:v>32691076.406060182</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32691201.615573071</c:v>
+                  <c:v>32691201.625306964</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32691199.745968465</c:v>
+                  <c:v>32691199.756382674</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>32691080.478631593</c:v>
+                  <c:v>32691080.536091328</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>32691083.592237521</c:v>
+                  <c:v>32691083.648452483</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>32691193.904290069</c:v>
+                  <c:v>32691193.910754651</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>32691218.532759439</c:v>
+                  <c:v>32691218.543173693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,61 +1730,61 @@
                   <c:v>5335904.7699999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5335937.8688882738</c:v>
+                  <c:v>5335937.8557288582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5336012.1847437089</c:v>
+                  <c:v>5336012.1422689129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5335989.3449267028</c:v>
+                  <c:v>5335989.311530632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5335904.7762228288</c:v>
+                  <c:v>5335904.776237011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5335921.2104839645</c:v>
+                  <c:v>5335921.2041903548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5335944.0925546549</c:v>
+                  <c:v>5335944.0770695815</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5335941.8217898998</c:v>
+                  <c:v>5335941.8071056241</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5335995.0350177083</c:v>
+                  <c:v>5335994.9990476491</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5335992.765753055</c:v>
+                  <c:v>5335992.7307875231</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5335911.6767340647</c:v>
+                  <c:v>5335911.67394525</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5335998.3444818128</c:v>
+                  <c:v>5335998.3074966585</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5335935.4588757679</c:v>
+                  <c:v>5335935.4467244633</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5335954.0316064823</c:v>
+                  <c:v>5335954.0121843265</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5335974.4198647374</c:v>
+                  <c:v>5335974.3921914967</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5335962.3451219816</c:v>
+                  <c:v>5335962.3222108874</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5335980.7254091483</c:v>
+                  <c:v>5335980.6953885909</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5335981.3215810927</c:v>
+                  <c:v>5335981.2913223328</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5335922.1096398355</c:v>
+                  <c:v>5335922.1033462258</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5335961.3021047637</c:v>
+                  <c:v>5335961.2791944677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,10 +2329,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>32691109.71453901</c:v>
+                  <c:v>32691109.760230456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32691172.497133248</c:v>
+                  <c:v>32691172.518198069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,10 +2344,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>5335911.6767340647</c:v>
+                  <c:v>5335911.67394525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5335998.3444818128</c:v>
+                  <c:v>5335998.3074966585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,22 +2394,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="2">
-                  <c:v>32691195.681035489</c:v>
+                  <c:v>32691195.692734241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32691076.347295664</c:v>
+                  <c:v>32691076.406060182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32691201.615573071</c:v>
+                  <c:v>32691201.625306964</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32691199.745968465</c:v>
+                  <c:v>32691199.756382674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32691080.478631593</c:v>
+                  <c:v>32691080.536091328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32691083.592237521</c:v>
+                  <c:v>32691083.648452483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,22 +2421,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="2">
-                  <c:v>5335935.4588757679</c:v>
+                  <c:v>5335935.4467244633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5335954.0316064823</c:v>
+                  <c:v>5335954.0121843265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5335974.4198647374</c:v>
+                  <c:v>5335974.3921914967</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5335962.3451219816</c:v>
+                  <c:v>5335962.3222108874</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5335980.7254091483</c:v>
+                  <c:v>5335980.6953885909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5335981.3215810927</c:v>
+                  <c:v>5335981.2913223328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,10 +2483,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="2">
-                  <c:v>32691193.904290069</c:v>
+                  <c:v>32691193.910754651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32691218.532759439</c:v>
+                  <c:v>32691218.543173693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,10 +2498,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="2">
-                  <c:v>5335922.1096398355</c:v>
+                  <c:v>5335922.1033462258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5335961.3021047637</c:v>
+                  <c:v>5335961.2791944677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6054,10 +6094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
-  <dimension ref="A1:BC97"/>
+  <dimension ref="A1:BD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX21" sqref="AX21"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6080,6 +6120,7 @@
     <col min="32" max="32" width="14.90625" customWidth="1"/>
     <col min="33" max="33" width="12" customWidth="1"/>
     <col min="44" max="44" width="18.26953125" customWidth="1"/>
+    <col min="45" max="45" width="12" customWidth="1"/>
     <col min="50" max="50" width="13.08984375" customWidth="1"/>
     <col min="51" max="51" width="14.6328125" customWidth="1"/>
     <col min="52" max="52" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -6203,16 +6244,17 @@
         <f>X4+T6</f>
         <v>181.83600000000001</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6317,22 +6359,22 @@
       <c r="AW7" t="s">
         <v>169</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AX7" s="35">
         <f>((AK12-AK20)^2+(AL12-AL20)^2)^0.5</f>
         <v>14.269286632801494</v>
       </c>
       <c r="AY7">
         <v>14.25</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="35">
         <f>AY7-AX7</f>
         <v>-1.9286632801494008E-2</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BA7" s="35">
         <f>0.008*(AY7)^0.5+0.0004*AY7+0.03</f>
         <v>6.5899337741083003E-2</v>
       </c>
-      <c r="BB7" s="20">
+      <c r="BB7" s="35">
         <f>BA7-ABS(AZ7)</f>
         <v>4.6612704939588995E-2</v>
       </c>
@@ -6379,11 +6421,11 @@
         <f>AY8-AX8</f>
         <v>6.3789870979531926E-2</v>
       </c>
-      <c r="BA8" s="12">
+      <c r="BA8" s="44">
         <f>0.008*(AY8)^0.5+0.0004*AY8+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="BB8" s="23">
+      <c r="BB8" s="44">
         <f t="shared" ref="BB8:BB18" si="1">BA8-ABS(AZ8)</f>
         <v>-9.3617771081426493E-4</v>
       </c>
@@ -6435,22 +6477,22 @@
       <c r="AW9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AX9" s="12">
+      <c r="AX9" s="44">
         <f>((AK19-AK18)^2+(AL19-AL18)^2)^0.5</f>
         <v>120.72656778703256</v>
       </c>
       <c r="AY9" s="11">
         <v>120.83</v>
       </c>
-      <c r="AZ9" s="12">
+      <c r="AZ9" s="44">
         <f>AY9-AX9</f>
         <v>0.10343221296743366</v>
       </c>
-      <c r="BA9" s="12">
+      <c r="BA9" s="44">
         <f t="shared" ref="BA9:BA18" si="2">0.008*(AY9)^0.5+0.0004*AY9+0.03</f>
         <v>0.16627016008991771</v>
       </c>
-      <c r="BB9" s="23">
+      <c r="BB9" s="44">
         <f t="shared" si="1"/>
         <v>6.2837947122484056E-2</v>
       </c>
@@ -6515,22 +6557,22 @@
       <c r="AW10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AX10" s="12">
+      <c r="AX10" s="44">
         <f>((AK18-AK14)^2+(AL18-AL14)^2)^0.5</f>
         <v>12.234007466679822</v>
       </c>
       <c r="AY10" s="11">
         <v>12.22</v>
       </c>
-      <c r="AZ10" s="12">
-        <f t="shared" ref="AZ10:AZ18" si="3">AY10-AX10</f>
+      <c r="AZ10" s="44">
+        <f t="shared" ref="AZ10" si="3">AY10-AX10</f>
         <v>-1.4007466679821334E-2</v>
       </c>
-      <c r="BA10" s="12">
+      <c r="BA10" s="44">
         <f t="shared" si="2"/>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="BB10" s="23">
+      <c r="BB10" s="44">
         <f t="shared" si="1"/>
         <v>4.8846226588896327E-2</v>
       </c>
@@ -6600,22 +6642,22 @@
       <c r="AW11" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AX11" s="12">
+      <c r="AX11" s="44">
         <f>((AK14-AK13)^2+(AL14-AL13)^2)^0.5</f>
         <v>14.419200633054107</v>
       </c>
       <c r="AY11" s="11">
         <v>14.57</v>
       </c>
-      <c r="AZ11" s="12">
+      <c r="AZ11" s="44">
         <f>AY11-AX11</f>
         <v>0.15079936694589335</v>
       </c>
-      <c r="BA11" s="12">
+      <c r="BA11" s="44">
         <f t="shared" si="2"/>
         <v>6.63645354943877E-2</v>
       </c>
-      <c r="BB11" s="23">
+      <c r="BB11" s="44">
         <f t="shared" si="1"/>
         <v>-8.4434831451505654E-2</v>
       </c>
@@ -6670,22 +6712,22 @@
       <c r="AW12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AX12" s="12">
+      <c r="AX12" s="44">
         <f>((AK13-AK15)^2+(AL13-AL15)^2)^0.5</f>
         <v>51.510103879267845</v>
       </c>
       <c r="AY12" s="11">
         <v>51.52</v>
       </c>
-      <c r="AZ12" s="12">
-        <f t="shared" ref="AZ12:AZ18" si="5">AY12-AX12</f>
+      <c r="AZ12" s="44">
+        <f t="shared" ref="AZ12:AZ14" si="5">AY12-AX12</f>
         <v>9.8961207321579536E-3</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BA12" s="44">
         <f t="shared" si="2"/>
         <v>0.10802994702376435</v>
       </c>
-      <c r="BB12" s="23">
+      <c r="BB12" s="44">
         <f t="shared" si="1"/>
         <v>9.8133826291606399E-2</v>
       </c>
@@ -6741,22 +6783,22 @@
       <c r="AW13" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AX13" s="12">
+      <c r="AX13" s="44">
         <f>((AK15-AK16)^2+(AL15-AL16)^2)^0.5</f>
         <v>14.463944672597412</v>
       </c>
       <c r="AY13" s="11">
         <v>14.51</v>
       </c>
-      <c r="AZ13" s="12">
+      <c r="AZ13" s="44">
         <f t="shared" si="5"/>
         <v>4.6055327402587665E-2</v>
       </c>
-      <c r="BA13" s="12">
+      <c r="BA13" s="44">
         <f t="shared" si="2"/>
         <v>6.6277595127585451E-2</v>
       </c>
-      <c r="BB13" s="23">
+      <c r="BB13" s="44">
         <f t="shared" si="1"/>
         <v>2.0222267724997786E-2</v>
       </c>
@@ -6814,22 +6856,22 @@
       <c r="AW14" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AX14" s="12">
+      <c r="AX14" s="44">
         <f>((AK16-AK24)^2+(AL16-AL24)^2)^0.5</f>
         <v>12.159525577058051</v>
       </c>
       <c r="AY14" s="11">
         <v>12.17</v>
       </c>
-      <c r="AZ14" s="12">
+      <c r="AZ14" s="44">
         <f t="shared" si="5"/>
         <v>1.0474422941948447E-2</v>
       </c>
-      <c r="BA14" s="12">
+      <c r="BA14" s="44">
         <f t="shared" si="2"/>
         <v>6.2776421668019847E-2</v>
       </c>
-      <c r="BB14" s="23">
+      <c r="BB14" s="44">
         <f t="shared" si="1"/>
         <v>5.23019987260714E-2</v>
       </c>
@@ -6913,22 +6955,22 @@
       <c r="AW15" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AX15" s="12">
+      <c r="AX15" s="44">
         <f>((AK24-AK23)^2+(AL24-AL23)^2)^0.5</f>
         <v>120.63153545227036</v>
       </c>
       <c r="AY15" s="11">
         <v>120.8</v>
       </c>
-      <c r="AZ15" s="12">
+      <c r="AZ15" s="44">
         <f>AY15-AX15</f>
         <v>0.16846454772964137</v>
       </c>
-      <c r="BA15" s="12">
+      <c r="BA15" s="44">
         <f t="shared" si="2"/>
         <v>0.16624724264981816</v>
       </c>
-      <c r="BB15" s="23">
+      <c r="BB15" s="44">
         <f t="shared" si="1"/>
         <v>-2.2173050798232063E-3</v>
       </c>
@@ -7007,27 +7049,27 @@
       <c r="AW16" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AX16" s="12">
+      <c r="AX16" s="44">
         <f>((AK23-AK22)^2+(AL23-AL22)^2)^0.5</f>
         <v>12.214200705558262</v>
       </c>
       <c r="AY16" s="11">
         <v>12.17</v>
       </c>
-      <c r="AZ16" s="12">
-        <f t="shared" ref="AZ16:AZ18" si="8">AY16-AX16</f>
+      <c r="AZ16" s="44">
+        <f t="shared" ref="AZ16" si="8">AY16-AX16</f>
         <v>-4.4200705558262499E-2</v>
       </c>
-      <c r="BA16" s="12">
+      <c r="BA16" s="44">
         <f t="shared" si="2"/>
         <v>6.2776421668019847E-2</v>
       </c>
-      <c r="BB16" s="23">
+      <c r="BB16" s="44">
         <f t="shared" si="1"/>
         <v>1.8575716109757348E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="V17" t="s">
         <v>41</v>
       </c>
@@ -7064,27 +7106,27 @@
       <c r="AW17" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AX17" s="12">
+      <c r="AX17" s="44">
         <f>((AK22-AK26)^2+(AL22-AL26)^2)^0.5</f>
-        <v>73.431697718608334</v>
+        <v>14.351657495431299</v>
       </c>
       <c r="AY17" s="11">
         <v>14.35</v>
       </c>
-      <c r="AZ17" s="12">
+      <c r="AZ17" s="44">
         <f>AY17-AX17</f>
-        <v>-59.081697718608332</v>
-      </c>
-      <c r="BA17" s="12">
+        <v>-1.6574954312993384E-3</v>
+      </c>
+      <c r="BA17" s="44">
         <f t="shared" si="2"/>
         <v>6.6045115079801292E-2</v>
       </c>
-      <c r="BB17" s="23">
+      <c r="BB17" s="44">
         <f t="shared" si="1"/>
-        <v>-59.01565260352853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+        <v>6.4387619648501954E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7158,27 +7200,33 @@
       <c r="AW18" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AX18" s="12">
+      <c r="AX18" s="44">
         <f>((AK26-AK12)^2+(AL26-AL12)^2)^0.5</f>
-        <v>23.56</v>
+        <v>51.566603219713322</v>
       </c>
       <c r="AY18" s="11">
         <v>51.69</v>
       </c>
-      <c r="AZ18" s="12">
+      <c r="AZ18" s="44">
         <f t="shared" ref="AZ18" si="10">AY18-AX18</f>
-        <v>28.13</v>
-      </c>
-      <c r="BA18" s="2">
+        <v>0.12339678028667578</v>
+      </c>
+      <c r="BA18" s="35">
         <f t="shared" si="2"/>
         <v>0.10819260629765981</v>
       </c>
-      <c r="BB18" s="23">
+      <c r="BB18" s="44">
         <f t="shared" si="1"/>
-        <v>-28.021807393702339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+        <v>-1.5204173989015968E-2</v>
+      </c>
+      <c r="BC18">
+        <v>0.123</v>
+      </c>
+      <c r="BD18">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -7219,7 +7267,7 @@
         <v>34.434163654868314</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="P20" t="s">
         <v>29</v>
       </c>
@@ -7262,7 +7310,7 @@
         <v>33.85267534337622</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -7291,8 +7339,14 @@
         <f>BA54</f>
         <v>68.637620721623961</v>
       </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AU21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7365,8 +7419,22 @@
         <f>AZ36</f>
         <v>35.665883885492875</v>
       </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AR22" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU22" s="2">
+        <f>AK20</f>
+        <v>12.659744044170566</v>
+      </c>
+      <c r="AV22" s="2">
+        <f>AL20</f>
+        <v>33.85267534337622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -7434,8 +7502,19 @@
         <f t="shared" si="12"/>
         <v>35.308765408881264</v>
       </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AT23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" ref="AU23:AV23" si="13">AK26</f>
+        <v>64.626158732612254</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="13"/>
+        <v>21.320902306568343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="P24" t="s">
         <v>2</v>
       </c>
@@ -7473,7 +7552,7 @@
         <v>155.88618460853857</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -7529,7 +7608,7 @@
         <v>156.42966547287244</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -7562,8 +7641,16 @@
       <c r="AJ26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="AK26" s="2">
+        <f t="shared" ref="AK26:AL26" si="14">AT78</f>
+        <v>64.626158732612254</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="14"/>
+        <v>21.320902306568343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -7593,7 +7680,7 @@
         <v>114.57230599148026</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -7621,7 +7708,7 @@
         <v>68.638374936410457</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="P29">
         <f>1200-P27</f>
         <v>0</v>
@@ -7658,7 +7745,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -7666,7 +7753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7736,26 +7823,26 @@
       <c r="AR31" t="s">
         <v>239</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AU31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AV31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AW31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AX31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AY31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -7865,11 +7952,11 @@
         <f>200+AG53+AW33-400-400</f>
         <v>45.8199294572388</v>
       </c>
-      <c r="AY33">
+      <c r="AY33" s="2">
         <f>AK17+AV33*SIN(AX33*(PI()/200))</f>
         <v>21.253082809166997</v>
       </c>
-      <c r="AZ33">
+      <c r="AZ33" s="2">
         <f>AL17+AV33*COS(AX33*(PI()/200))</f>
         <v>155.10855647594073</v>
       </c>
@@ -7960,11 +8047,11 @@
         <f>200+AG53+AW34-400-400</f>
         <v>171.11692945723883</v>
       </c>
-      <c r="AY34">
+      <c r="AY34" s="2">
         <f>AK17+AV34*SIN(AX34*(PI()/200))</f>
         <v>24.802038557338079</v>
       </c>
-      <c r="AZ34">
+      <c r="AZ34" s="2">
         <f>AL17+AV34*COS(AX34*(PI()/200))</f>
         <v>34.434163654868314</v>
       </c>
@@ -8040,6 +8127,8 @@
         <f>0.008*(AO35)^0.5+0.0004*AO35+0.03</f>
         <v>0.10802994702376435</v>
       </c>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -8074,11 +8163,11 @@
         <f>AW36+200+BA47-400</f>
         <v>232.144796444745</v>
       </c>
-      <c r="AY36">
+      <c r="AY36" s="2">
         <f>$AK$21+AV36*SIN(AX36*(PI()/200))</f>
         <v>64.188464356951314</v>
       </c>
-      <c r="AZ36">
+      <c r="AZ36" s="2">
         <f>$AL$21+AV36*COS(AX36*(PI()/200))</f>
         <v>35.665883885492875</v>
       </c>
@@ -8122,23 +8211,23 @@
         <v>42</v>
       </c>
       <c r="AV37">
-        <f t="shared" ref="AV37:AV39" si="13">K49</f>
+        <f t="shared" ref="AV37:AV39" si="15">K49</f>
         <v>45.133000000000003</v>
       </c>
       <c r="AW37">
-        <f t="shared" ref="AW37:AW39" si="14">C49</f>
+        <f t="shared" ref="AW37:AW39" si="16">C49</f>
         <v>251.05699999999999</v>
       </c>
       <c r="AX37" s="2">
         <f>AW37+200+BA47-400</f>
         <v>247.11079644474489</v>
       </c>
-      <c r="AY37">
-        <f t="shared" ref="AY37:AY39" si="15">$AK$21+AV37*SIN(AX37*(PI()/200))</f>
+      <c r="AY37" s="2">
+        <f t="shared" ref="AY37:AY39" si="17">$AK$21+AV37*SIN(AX37*(PI()/200))</f>
         <v>51.97948547789175</v>
       </c>
-      <c r="AZ37">
-        <f t="shared" ref="AZ37:AZ39" si="16">$AL$21+AV37*COS(AX37*(PI()/200))</f>
+      <c r="AZ37" s="2">
+        <f t="shared" ref="AZ37:AZ39" si="18">$AL$21+AV37*COS(AX37*(PI()/200))</f>
         <v>35.308765408881264</v>
       </c>
     </row>
@@ -8174,23 +8263,23 @@
         <v>41</v>
       </c>
       <c r="AV38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>93.656000000000006</v>
       </c>
       <c r="AW38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>380.26100000000002</v>
       </c>
       <c r="AX38" s="2">
         <f>AW38+200+BA47-400</f>
         <v>376.31479644474484</v>
       </c>
-      <c r="AY38">
-        <f t="shared" si="15"/>
+      <c r="AY38" s="2">
+        <f t="shared" si="17"/>
         <v>48.366546961604179</v>
       </c>
-      <c r="AZ38">
-        <f t="shared" si="16"/>
+      <c r="AZ38" s="2">
+        <f t="shared" si="18"/>
         <v>155.88618460853857</v>
       </c>
     </row>
@@ -8219,23 +8308,23 @@
         <v>17</v>
       </c>
       <c r="AV39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>90.486999999999995</v>
       </c>
       <c r="AW39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>388.37</v>
       </c>
       <c r="AX39" s="2">
         <f>AW39+200+BA47-400</f>
         <v>384.42379644474499</v>
       </c>
-      <c r="AY39">
-        <f t="shared" si="15"/>
+      <c r="AY39" s="2">
+        <f t="shared" si="17"/>
         <v>60.493348382721777</v>
       </c>
-      <c r="AZ39">
-        <f t="shared" si="16"/>
+      <c r="AZ39" s="2">
+        <f t="shared" si="18"/>
         <v>156.42966547287244</v>
       </c>
     </row>
@@ -8347,11 +8436,11 @@
         <v>49</v>
       </c>
       <c r="AN43" t="str">
-        <f t="shared" ref="AM43:AO47" si="17">AK7</f>
+        <f t="shared" ref="AM43:AO47" si="19">AK7</f>
         <v>y</v>
       </c>
       <c r="AO43" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>x</v>
       </c>
       <c r="AR43" t="s">
@@ -8405,15 +8494,15 @@
         <v>0.99998194533111928</v>
       </c>
       <c r="AM44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>P3021A</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AQ44" t="s">
@@ -8478,15 +8567,15 @@
         <v>0.97861735706908226</v>
       </c>
       <c r="AM45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>P1</v>
       </c>
       <c r="AN45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>181.83600000000001</v>
       </c>
       <c r="AR45" s="35"/>
@@ -8530,15 +8619,15 @@
       </c>
       <c r="AH46" s="40"/>
       <c r="AM46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>P2</v>
       </c>
       <c r="AN46" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>75.311327476819272</v>
       </c>
       <c r="AO46" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>183.15417587465905</v>
       </c>
       <c r="AR46" s="35" t="s">
@@ -8608,15 +8697,15 @@
         <v>119.46299999999999</v>
       </c>
       <c r="AM47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>P3</v>
       </c>
       <c r="AN47" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>84.448672839820915</v>
       </c>
       <c r="AO47" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.1959047818665169</v>
       </c>
       <c r="AQ47" t="s">
@@ -9262,11 +9351,11 @@
         <v>60</v>
       </c>
       <c r="AN61">
-        <f t="shared" ref="AN61:AN65" si="18">AK25</f>
+        <f t="shared" ref="AN61:AN65" si="20">AK25</f>
         <v>60.493348382721777</v>
       </c>
       <c r="AO61">
-        <f t="shared" ref="AO61:AO65" si="19">AL25</f>
+        <f t="shared" ref="AO61:AO65" si="21">AL25</f>
         <v>156.42966547287244</v>
       </c>
       <c r="AS61" t="s">
@@ -9337,16 +9426,16 @@
         <v>1.0000057410348704</v>
       </c>
       <c r="AM62" t="str">
-        <f t="shared" ref="AM62:AM65" si="20">AJ26</f>
+        <f t="shared" ref="AM62:AM65" si="22">AJ26</f>
         <v>D</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>64.626158732612254</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>21.320902306568343</v>
       </c>
     </row>
     <row r="63" spans="2:53" x14ac:dyDescent="0.35">
@@ -9386,15 +9475,15 @@
         <v>198.19</v>
       </c>
       <c r="AM63">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN63">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AN63">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AO63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AS63" t="s">
@@ -9449,15 +9538,15 @@
         <v>175.19800000000001</v>
       </c>
       <c r="AM64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN64">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AN64">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AO64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AT64" s="2">
@@ -9497,15 +9586,15 @@
         <v>114.73699999999999</v>
       </c>
       <c r="AM65" t="str">
+        <f t="shared" si="22"/>
+        <v>y</v>
+      </c>
+      <c r="AN65" t="str">
         <f t="shared" si="20"/>
-        <v>y</v>
-      </c>
-      <c r="AN65" t="str">
-        <f t="shared" si="18"/>
         <v>x</v>
       </c>
       <c r="AO65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>ds Koods</v>
       </c>
       <c r="AS65" t="s">
@@ -9761,7 +9850,7 @@
       </c>
       <c r="AN70">
         <f>((AL70-AN62)^2+(AM70-AO62)^2)^0.5</f>
-        <v>107.2566808914321</v>
+        <v>50.55143371131733</v>
       </c>
       <c r="AO70">
         <f>((AL70-AN63)^2+(AM70-AO63)^2)^0.5</f>
@@ -9811,11 +9900,14 @@
       </c>
       <c r="AN71">
         <f>((AL71-AN63)^2+(AM71-AO62)^2)^0.5</f>
-        <v>0</v>
+        <v>21.320902306568343</v>
       </c>
       <c r="AO71">
         <f>((AL71-AN63)^2+(AM71-AO63)^2)^0.5</f>
         <v>0</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="3:51" x14ac:dyDescent="0.35">
@@ -9875,7 +9967,7 @@
       </c>
       <c r="AN72">
         <f>((AL72-AN62)^2+(AM72-AO62)^2)^0.5</f>
-        <v>60.475999999999999</v>
+        <v>77.293579602661808</v>
       </c>
       <c r="AO72">
         <f>((AL72-AN63)^2+(AM72-AO63)^2)^0.5</f>
@@ -9943,12 +10035,22 @@
       </c>
       <c r="AN73">
         <f>((AL73-AN63)^2+(AM73-AO62)^2)^0.5</f>
-        <v>107.25185933733455</v>
+        <v>95.030048903278797</v>
       </c>
       <c r="AO73">
         <f>((AL73-AN63)^2+(AM73-AO63)^2)^0.5</f>
         <v>107.25185933733455</v>
       </c>
+      <c r="AS73" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT73">
+        <v>14.35</v>
+      </c>
+      <c r="AU73">
+        <f>AT74+AT73</f>
+        <v>135.15</v>
+      </c>
     </row>
     <row r="74" spans="3:51" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
@@ -9989,6 +10091,12 @@
         <f>(Q37-200)+AG68+400</f>
         <v>397.85620755042157</v>
       </c>
+      <c r="AS74" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT74">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="75" spans="3:51" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
@@ -10027,6 +10135,17 @@
         <f>Q54</f>
         <v>82.412610400289438</v>
       </c>
+      <c r="AS75" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT75">
+        <f>(AK16+AK25)/2</f>
+        <v>60.503901250342167</v>
+      </c>
+      <c r="AU75">
+        <f>(AL16+AL25)/2</f>
+        <v>156.42363822236274</v>
+      </c>
     </row>
     <row r="76" spans="3:51" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
@@ -10084,6 +10203,15 @@
         <f>Q55</f>
         <v>68.637620721623961</v>
       </c>
+      <c r="AS76" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="77" spans="3:51" x14ac:dyDescent="0.35">
       <c r="I77" t="s">
@@ -10111,6 +10239,14 @@
         <f>K7</f>
         <v>84.852000000000004</v>
       </c>
+      <c r="AT77" s="2">
+        <f>AY36-AT75</f>
+        <v>3.6845631066091471</v>
+      </c>
+      <c r="AU77" s="2">
+        <f>AZ36-AU75</f>
+        <v>-120.75775433686987</v>
+      </c>
     </row>
     <row r="78" spans="3:51" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
@@ -10120,6 +10256,17 @@
         <f>R72+S72*COS(Q76*(PI()/200))</f>
         <v>21.144851957328054</v>
       </c>
+      <c r="AS78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT78">
+        <f>AT75+(AU73/AT74)*AT77</f>
+        <v>64.626158732612254</v>
+      </c>
+      <c r="AU78">
+        <f>AU75+(AU73/AT74)*AU77</f>
+        <v>21.320902306568343</v>
+      </c>
     </row>
     <row r="79" spans="3:51" x14ac:dyDescent="0.35">
       <c r="C79" s="13" t="s">
@@ -10239,7 +10386,7 @@
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="G84" s="21">
-        <f t="shared" ref="G84:G94" si="21">F84-ABS(E84)</f>
+        <f t="shared" ref="G84:G94" si="23">F84-ABS(E84)</f>
         <v>-1.1416138109645395</v>
       </c>
       <c r="I84" s="26" t="s">
@@ -10284,11 +10431,11 @@
         <v>0.10343221296741945</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" ref="F85:F94" si="22">0.008*(D85)^0.5+0.0004*D85+0.03</f>
+        <f t="shared" ref="F85:F94" si="24">0.008*(D85)^0.5+0.0004*D85+0.03</f>
         <v>0.16627016008991771</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.2837947122498267E-2</v>
       </c>
       <c r="P85" t="s">
@@ -10315,15 +10462,15 @@
         <v>12.22</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" ref="E86:E94" si="23">D86-C86</f>
+        <f t="shared" ref="E86:E94" si="25">D86-C86</f>
         <v>3.5741880587650598E-2</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.7111812681067063E-2</v>
       </c>
       <c r="P86" t="s">
@@ -10354,11 +10501,11 @@
         <v>0.15079936694589335</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.63645354943877E-2</v>
       </c>
       <c r="G87" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-8.4434831451505654E-2</v>
       </c>
       <c r="P87" t="s">
@@ -10385,15 +10532,15 @@
         <v>51.52</v>
       </c>
       <c r="E88" s="2">
+        <f t="shared" si="25"/>
+        <v>8.5082980482624748E-3</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="24"/>
+        <v>0.10802994702376435</v>
+      </c>
+      <c r="G88" s="20">
         <f t="shared" si="23"/>
-        <v>8.5082980482624748E-3</v>
-      </c>
-      <c r="F88" s="2">
-        <f t="shared" si="22"/>
-        <v>0.10802994702376435</v>
-      </c>
-      <c r="G88" s="20">
-        <f t="shared" si="21"/>
         <v>9.9521648975501878E-2</v>
       </c>
     </row>
@@ -10409,15 +10556,15 @@
         <v>14.51</v>
       </c>
       <c r="E89" s="2">
+        <f t="shared" si="25"/>
+        <v>4.6055327402605428E-2</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="24"/>
+        <v>6.6277595127585451E-2</v>
+      </c>
+      <c r="G89" s="20">
         <f t="shared" si="23"/>
-        <v>4.6055327402605428E-2</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="22"/>
-        <v>6.6277595127585451E-2</v>
-      </c>
-      <c r="G89" s="20">
-        <f t="shared" si="21"/>
         <v>2.0222267724980023E-2</v>
       </c>
       <c r="I89" t="s">
@@ -10457,15 +10604,15 @@
         <v>12.17</v>
       </c>
       <c r="E90" s="17">
+        <f t="shared" si="25"/>
+        <v>1.7465253656808244</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="24"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="G90" s="21">
         <f t="shared" si="23"/>
-        <v>1.7465253656808244</v>
-      </c>
-      <c r="F90" s="2">
-        <f t="shared" si="22"/>
-        <v>6.2776421668019847E-2</v>
-      </c>
-      <c r="G90" s="21">
-        <f t="shared" si="21"/>
         <v>-1.6837489440128046</v>
       </c>
       <c r="I90" t="s">
@@ -10514,11 +10661,11 @@
         <v>0.16846454772962716</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.16624724264981816</v>
       </c>
       <c r="G91" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2.2173050798089955E-3</v>
       </c>
       <c r="P91" t="s">
@@ -10552,15 +10699,15 @@
         <v>12.17</v>
       </c>
       <c r="E92" s="17">
+        <f t="shared" si="25"/>
+        <v>-1.4610963495373728</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="24"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="G92" s="21">
         <f t="shared" si="23"/>
-        <v>-1.4610963495373728</v>
-      </c>
-      <c r="F92" s="2">
-        <f t="shared" si="22"/>
-        <v>6.2776421668019847E-2</v>
-      </c>
-      <c r="G92" s="21">
-        <f t="shared" si="21"/>
         <v>-1.398319927869353</v>
       </c>
       <c r="P92" t="s">
@@ -10597,11 +10744,11 @@
         <v>-2.4472567117130897</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.6045115079801292E-2</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2.3812115966332885</v>
       </c>
       <c r="P93" t="s">
@@ -10624,15 +10771,15 @@
         <v>51.69</v>
       </c>
       <c r="E94" s="12">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="24"/>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="G94" s="23">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="2">
-        <f t="shared" si="22"/>
-        <v>0.10819260629765981</v>
-      </c>
-      <c r="G94" s="23">
-        <f t="shared" si="21"/>
         <v>0.10819260629765981</v>
       </c>
       <c r="P94" t="s">
@@ -10719,8 +10866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
   <dimension ref="A2:AC81"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="Q8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10729,6 +10876,7 @@
     <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" customWidth="1"/>
     <col min="15" max="15" width="15.08984375" customWidth="1"/>
     <col min="17" max="17" width="16.08984375" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -10758,7 +10906,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>89</v>
@@ -10787,6 +10935,9 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M3" t="s">
+        <v>290</v>
+      </c>
       <c r="P3">
         <v>6380000</v>
       </c>
@@ -10856,7 +11007,7 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="P5">
@@ -10912,8 +11063,16 @@
         <v>181.834</v>
       </c>
       <c r="L6" s="2">
-        <f>K6*P6+K6-0.0004</f>
-        <v>181.90059792833327</v>
+        <f>N6</f>
+        <v>181.82827811199567</v>
+      </c>
+      <c r="M6" s="2">
+        <f>K6*(-($P$4/$P$3)+($P$10^2/(2*$P$3^2))-0.0004)</f>
+        <v>-5.7218880043417688E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <f>K6+M6</f>
+        <v>181.82827811199567</v>
       </c>
       <c r="O6" t="s">
         <v>93</v>
@@ -10966,8 +11125,16 @@
         <v>84.852000000000004</v>
       </c>
       <c r="L7" s="2">
-        <f>K7*P6+K7-0.0004</f>
-        <v>84.882864275190201</v>
+        <f t="shared" ref="L7:L51" si="0">N7</f>
+        <v>84.849329907272875</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M51" si="1">K7*(-($P$4/$P$3)+($P$10^2/(2*$P$3^2))-0.0004)</f>
+        <v>-2.670092727126983E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N51" si="2">K7+M7</f>
+        <v>84.849329907272875</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>106</v>
@@ -10988,11 +11155,11 @@
       </c>
       <c r="AB7">
         <f>T9</f>
-        <v>5335937.8688882738</v>
+        <v>5335937.8557288582</v>
       </c>
       <c r="AC7">
         <f>S9</f>
-        <v>32691046.149110068</v>
+        <v>32691046.220222555</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
@@ -11006,8 +11173,23 @@
         <v>23.56</v>
       </c>
       <c r="L8" s="2">
-        <f>K8*P6+K8-0.0004</f>
-        <v>23.568280836320664</v>
+        <f t="shared" si="0"/>
+        <v>23.559258622252258</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.4137774773855314E-4</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>23.559258622252258</v>
+      </c>
+      <c r="O8" t="s">
+        <v>288</v>
+      </c>
+      <c r="P8">
+        <f>S5-32500000</f>
+        <v>191225.01300000027</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>104</v>
@@ -11026,11 +11208,11 @@
       </c>
       <c r="AB8">
         <f>T10</f>
-        <v>5336012.1847437089</v>
+        <v>5336012.1422689129</v>
       </c>
       <c r="AC8">
         <f>S10</f>
-        <v>32691058.555756066</v>
+        <v>32691058.621974505</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
@@ -11055,17 +11237,28 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s">
+        <v>289</v>
+      </c>
+      <c r="P9">
+        <f>S4-32500000</f>
+        <v>191104.28999999911</v>
+      </c>
       <c r="R9" t="s">
         <v>2</v>
       </c>
       <c r="S9">
         <f>S5+L6*SIN(W11*(PI()/200))</f>
-        <v>32691046.149110068</v>
+        <v>32691046.220222555</v>
       </c>
       <c r="T9">
         <f>T5+L6*COS(W11*(PI()/200))</f>
-        <v>5335937.8688882738</v>
+        <v>5335937.8557288582</v>
       </c>
       <c r="W9" s="2"/>
       <c r="AA9" s="33" t="s">
@@ -11073,11 +11266,11 @@
       </c>
       <c r="AB9">
         <f>T11</f>
-        <v>5335989.3449267028</v>
+        <v>5335989.311530632</v>
       </c>
       <c r="AC9">
         <f>S11</f>
-        <v>32691232.324325249</v>
+        <v>32691232.32147146</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
@@ -11101,17 +11294,28 @@
       <c r="H10">
         <v>102.84399999999999</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s">
+        <v>287</v>
+      </c>
+      <c r="P10">
+        <f>(P8+P9)/(2*0.9996)</f>
+        <v>191241.14795918335</v>
+      </c>
       <c r="R10" t="s">
         <v>14</v>
       </c>
       <c r="S10">
         <f>S9+L32*SIN(W12*(PI()/200))</f>
-        <v>32691058.555756066</v>
+        <v>32691058.621974505</v>
       </c>
       <c r="T10">
         <f>T9+L32*COS(W12*(PI()/200))</f>
-        <v>5336012.1847437089</v>
+        <v>5336012.1422689129</v>
       </c>
       <c r="V10" t="s">
         <v>95</v>
@@ -11146,17 +11350,21 @@
       <c r="H11">
         <v>196.69</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="R11" t="s">
         <v>3</v>
       </c>
       <c r="S11">
         <f>S10+L22*SIN(W13*(PI()/200))</f>
-        <v>32691232.324325249</v>
+        <v>32691232.32147146</v>
       </c>
       <c r="T11">
         <f>T10+L22*COS(W13*(PI()/200))</f>
-        <v>5335989.3449267028</v>
+        <v>5335989.311530632</v>
       </c>
       <c r="V11" t="s">
         <v>100</v>
@@ -11167,17 +11375,21 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="R12" t="s">
         <v>29</v>
       </c>
       <c r="S12">
         <f>S11+L7*SIN(W14*(PI()/200))</f>
-        <v>32691225.028095227</v>
+        <v>32691225.028123934</v>
       </c>
       <c r="T12">
         <f>T11+L7*COS(W14*(PI()/200))</f>
-        <v>5335904.7762228288</v>
+        <v>5335904.776237011</v>
       </c>
       <c r="V12" t="s">
         <v>101</v>
@@ -11191,7 +11403,11 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="V13" t="s">
         <v>102</v>
       </c>
@@ -11201,7 +11417,11 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="V14" t="s">
         <v>103</v>
       </c>
@@ -11239,8 +11459,16 @@
         <v>84.850999999999999</v>
       </c>
       <c r="L15" s="2">
-        <f>K15*P6+K15-0.0004</f>
-        <v>84.881863906733656</v>
+        <f t="shared" si="0"/>
+        <v>84.84832993874052</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6700612594806441E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>84.84832993874052</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>107</v>
@@ -11275,8 +11503,16 @@
         <v>175.196</v>
       </c>
       <c r="L16" s="2">
-        <f>K16*P6+K16-0.0004</f>
-        <v>175.26015211375361</v>
+        <f t="shared" si="0"/>
+        <v>175.19048699423206</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.513005767945822E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>175.19048699423206</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>108</v>
@@ -11286,6 +11522,12 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="Q17" t="s">
         <v>109</v>
       </c>
@@ -11334,13 +11576,19 @@
       <c r="H18">
         <v>0</v>
       </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="S18">
         <f>S5+L8*SIN(R17*(PI()/200))</f>
-        <v>32691208.125894014</v>
+        <v>32691208.132358596</v>
       </c>
       <c r="T18">
         <f>T5+L8*COS(R17*(PI()/200))</f>
-        <v>5335921.2104839645</v>
+        <v>5335921.2041903548</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -11364,6 +11612,12 @@
       <c r="H19">
         <v>102.843</v>
       </c>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="Q19" s="8" t="s">
         <v>110</v>
       </c>
@@ -11382,18 +11636,24 @@
       </c>
       <c r="Y19" s="2">
         <f>L8</f>
-        <v>23.568280836320664</v>
+        <v>23.559258622252258</v>
       </c>
       <c r="Z19" s="2">
         <f>S5+Y19*SIN(X19*(PI()/200))</f>
-        <v>32691238.106219634</v>
+        <v>32691238.101207394</v>
       </c>
       <c r="AA19" s="2">
         <f>T5+Y19*COS(X19*(PI()/200))</f>
-        <v>5335924.3667206746</v>
+        <v>5335924.35921882</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="Q20" t="s">
         <v>111</v>
       </c>
@@ -11413,28 +11673,34 @@
       </c>
       <c r="Y20" s="2">
         <f>L37</f>
-        <v>15.321243280521532</v>
+        <v>15.315518041528678</v>
       </c>
       <c r="Z20" s="2">
         <f>S9+Y20*SIN(X20*(PI()/200))</f>
-        <v>32691054.816378254</v>
+        <v>32691054.88425196</v>
       </c>
       <c r="AA20" s="2">
         <f>T9+Y20*COS(X20*(PI()/200))</f>
-        <v>5335925.234848625</v>
+        <v>5335925.2264102949</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="S21">
         <f>S9+L37*SIN(R20*(PI()/200))</f>
-        <v>32691060.149341226</v>
+        <v>32691060.215222109</v>
       </c>
       <c r="T21">
         <f>T9+L37*COS(R20*(PI()/200))</f>
-        <v>5335944.0925546549</v>
+        <v>5335944.0770695815</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" t="s">
@@ -11446,15 +11712,15 @@
       </c>
       <c r="Y21" s="2">
         <f>L36</f>
-        <v>28.520104696243727</v>
+        <v>28.509102857402887</v>
       </c>
       <c r="Z21" s="2">
         <f>S9+Y21*SIN(X21*(PI()/200))</f>
-        <v>32691055.17549127</v>
+        <v>32691055.243121766</v>
       </c>
       <c r="AA21" s="2">
         <f>T9+Y21*COS(X21*(PI()/200))</f>
-        <v>5335910.8148531914</v>
+        <v>5335910.8121300675</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
@@ -11486,8 +11752,16 @@
         <v>175.19900000000001</v>
       </c>
       <c r="L22" s="2">
-        <f>K22*P6+K22-0.0004</f>
-        <v>175.26315321912327</v>
+        <f t="shared" si="0"/>
+        <v>175.19348689982914</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.5131001708848383E-3</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>175.19348689982914</v>
       </c>
       <c r="R22" t="s">
         <v>19</v>
@@ -11504,15 +11778,15 @@
       </c>
       <c r="Y22" s="2">
         <f>L27</f>
-        <v>19.517788955749257</v>
+        <v>19.510386034752287</v>
       </c>
       <c r="Z22" s="2">
         <f>S10+Y22*SIN(X22*(PI()/200))</f>
-        <v>32691043.386459783</v>
+        <v>32691043.458431799</v>
       </c>
       <c r="AA22" s="2">
         <f>T10+Y22*COS(X22*(PI()/200))</f>
-        <v>5335999.9031910384</v>
+        <v>5335999.8653745241</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -11543,8 +11817,16 @@
         <v>75.316999999999993</v>
       </c>
       <c r="L23" s="2">
-        <f>K23*P6+K23-0.0004</f>
-        <v>75.344351041984865</v>
+        <f t="shared" si="0"/>
+        <v>75.314629951280708</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.3700487192879712E-3</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>75.314629951280708</v>
       </c>
       <c r="Q23" t="s">
         <v>112</v>
@@ -11562,26 +11844,31 @@
       </c>
       <c r="Y23" s="2">
         <f>L28</f>
-        <v>30.568859295258356</v>
+        <v>30.557038411663182</v>
       </c>
       <c r="Z23" s="2">
         <f>S10+Y23*SIN(X23*(PI()/200))</f>
-        <v>32691043.753624391</v>
+        <v>32691043.825566769</v>
       </c>
       <c r="AA23" s="2">
         <f>T10+Y23*COS(X23*(PI()/200))</f>
-        <v>5335985.4386775214</v>
+        <v>5335985.4065453466</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="S24">
         <f>S9+L36*SIN(R23*(PI()/200))</f>
-        <v>32691074.393949252</v>
+        <v>32691074.454166088</v>
       </c>
       <c r="T24">
         <f>T9+L36*COS(R23*(PI()/200))</f>
-        <v>5335941.8217898998</v>
+        <v>5335941.8071056241</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
@@ -11606,7 +11893,12 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -11629,7 +11921,12 @@
       <c r="H26">
         <v>102.212</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="Q26" s="8" t="s">
         <v>113</v>
       </c>
@@ -11648,8 +11945,16 @@
         <v>19.510999999999999</v>
       </c>
       <c r="L27" s="2">
-        <f>K27*P6+K27-0.0004</f>
-        <v>19.517788955749257</v>
+        <f t="shared" si="0"/>
+        <v>19.510386034752287</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.1396524771336637E-4</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>19.510386034752287</v>
       </c>
       <c r="Q27" t="s">
         <v>114</v>
@@ -11670,20 +11975,33 @@
         <v>30.558</v>
       </c>
       <c r="L28" s="2">
-        <f>K28*P6+K28-0.0004</f>
-        <v>30.568859295258356</v>
+        <f t="shared" si="0"/>
+        <v>30.557038411663182</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.6158833681641372E-4</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>30.557038411663182</v>
       </c>
       <c r="S28">
         <f>S10+L27*SIN(R27*(PI()/200))</f>
-        <v>32691067.874070495</v>
+        <v>32691067.936754584</v>
       </c>
       <c r="T28">
         <f>T10+L27*COS(R27*(PI()/200))</f>
-        <v>5335995.0350177083</v>
+        <v>5335994.9990476491</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="L29" s="2"/>
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="R29" t="s">
         <v>17</v>
       </c>
@@ -11692,7 +12010,12 @@
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="Q30" t="s">
         <v>115</v>
       </c>
@@ -11730,16 +12053,24 @@
         <v>181.839</v>
       </c>
       <c r="L31" s="2">
-        <f>K31*P6+K31-0.0004</f>
-        <v>181.90559977061602</v>
+        <f t="shared" si="0"/>
+        <v>181.83327795465743</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.722045342573462E-3</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="2"/>
+        <v>181.83327795465743</v>
       </c>
       <c r="S31">
         <f>S10+L28*SIN(R30*(PI()/200))</f>
-        <v>32691082.16418593</v>
+        <v>32691082.221275061</v>
       </c>
       <c r="T31">
         <f>T10+L28*COS(R30*(PI()/200))</f>
-        <v>5335992.765753055</v>
+        <v>5335992.7307875231</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
@@ -11770,11 +12101,25 @@
         <v>75.316999999999993</v>
       </c>
       <c r="L32" s="2">
-        <f>K32*P6+K32-0.0004</f>
-        <v>75.344351041984865</v>
+        <f t="shared" si="0"/>
+        <v>75.314629951280708</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.3700487192879712E-3</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="2"/>
+        <v>75.314629951280708</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="P33" s="7" t="s">
         <v>48</v>
       </c>
@@ -11801,6 +12146,12 @@
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="P34" s="8" t="s">
         <v>116</v>
       </c>
@@ -11829,13 +12180,19 @@
       <c r="H35">
         <v>298.88099999999997</v>
       </c>
+      <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="Q35">
         <f>(SIN(400-C41)*L41)/L6</f>
-        <v>0.12283815875270812</v>
+        <v>0.12283860282695272</v>
       </c>
       <c r="R35">
         <f>ASIN(Q35)*(200/PI())</f>
-        <v>7.8399213936518812</v>
+        <v>7.8399498800325658</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
@@ -11849,15 +12206,23 @@
         <v>28.51</v>
       </c>
       <c r="L36" s="2">
-        <f>K36*P6+K36-0.0004</f>
-        <v>28.520104696243727</v>
+        <f t="shared" si="0"/>
+        <v>28.509102857402887</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.9714259711486219E-4</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>28.509102857402887</v>
       </c>
       <c r="Q36" t="s">
         <v>117</v>
       </c>
       <c r="R36" s="2">
         <f>W11-R35</f>
-        <v>303.80899744875933</v>
+        <v>303.80896896237863</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
@@ -11871,23 +12236,36 @@
         <v>15.316000000000001</v>
       </c>
       <c r="L37" s="2">
-        <f>K37*P6+K37-0.0004</f>
-        <v>15.321243280521532</v>
+        <f t="shared" si="0"/>
+        <v>15.315518041528678</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.8195847132273691E-4</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>15.315518041528678</v>
       </c>
       <c r="R37" t="s">
         <v>54</v>
       </c>
       <c r="S37">
         <f>S5+L40*SIN(R36*(PI()/200))</f>
-        <v>32691109.71453901</v>
+        <v>32691109.760230456</v>
       </c>
       <c r="T37">
         <f>T5+L40*COS(R36*(PI()/200))</f>
-        <v>5335911.6767340647</v>
+        <v>5335911.67394525</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L38" s="2"/>
+      <c r="L38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="P38" s="8" t="s">
         <v>119</v>
       </c>
@@ -11899,14 +12277,19 @@
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="Q39">
         <f>(SIN((400-C47)*(PI()/200))*L47)/L22</f>
-        <v>9.8127220054614207E-3</v>
+        <v>9.8127644897336424E-3</v>
       </c>
       <c r="R39">
         <f>ASIN(Q39)*(200/PI())</f>
-        <v>0.62470731067631735</v>
+        <v>0.62471001543931237</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
@@ -11920,15 +12303,23 @@
         <v>115.46299999999999</v>
       </c>
       <c r="L40" s="2">
-        <f>K40*P6+K40-0.0004</f>
-        <v>115.5051430986457</v>
+        <f t="shared" si="0"/>
+        <v>115.45936665115079</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.6333488491993447E-3</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
+        <v>115.45936665115079</v>
       </c>
       <c r="Q40" t="s">
         <v>121</v>
       </c>
       <c r="R40" s="2">
         <f>W13-R39</f>
-        <v>107.69521153173488</v>
+        <v>107.69520882697188</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
@@ -11942,19 +12333,27 @@
         <v>68.772999999999996</v>
       </c>
       <c r="L41" s="2">
-        <f>K41*P6+K41-0.0004</f>
-        <v>68.797939862320931</v>
+        <f t="shared" si="0"/>
+        <v>68.770835875558348</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.1641244416478571E-3</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="2"/>
+        <v>68.770835875558348</v>
       </c>
       <c r="R41" t="s">
         <v>63</v>
       </c>
       <c r="S41">
         <f>S10+L46*SIN(R40*(PI()/200))</f>
-        <v>32691172.497133248</v>
+        <v>32691172.518198069</v>
       </c>
       <c r="T41">
         <f>T10+L46*COS(R40*(PI()/200))</f>
-        <v>5335998.3444818128</v>
+        <v>5335998.3074966585</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
@@ -11968,8 +12367,16 @@
         <v>53.9</v>
       </c>
       <c r="L42" s="2">
-        <f>K42*P6+K42-0.0004</f>
-        <v>53.919459808051094</v>
+        <f t="shared" si="0"/>
+        <v>53.898303893862348</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.6961061376531417E-3</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="2"/>
+        <v>53.898303893862348</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
@@ -11983,15 +12390,28 @@
         <v>89.162999999999997</v>
       </c>
       <c r="L43" s="2">
-        <f>K43*P6+K43-0.0004</f>
-        <v>89.195452691377739</v>
+        <f t="shared" si="0"/>
+        <v>89.160194250249504</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.8057497504928954E-3</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="2"/>
+        <v>89.160194250249504</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L44" s="2"/>
+      <c r="L44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="Q44" s="8" t="s">
         <v>123</v>
       </c>
@@ -12000,7 +12420,12 @@
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="R45" t="s">
         <v>23</v>
       </c>
@@ -12016,15 +12441,23 @@
         <v>114.73699999999999</v>
       </c>
       <c r="L46" s="2">
-        <f>K46*P6+K46-0.0004</f>
-        <v>114.77887559919033</v>
+        <f t="shared" si="0"/>
+        <v>114.73338949666204</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.6105033379574859E-3</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="2"/>
+        <v>114.73338949666204</v>
       </c>
       <c r="Q46" t="s">
         <v>124</v>
       </c>
       <c r="R46" s="2">
         <f>R36+200+C43-400-400</f>
-        <v>82.817997448759343</v>
+        <v>82.8179689623787</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
@@ -12038,16 +12471,24 @@
         <v>60.475999999999999</v>
       </c>
       <c r="L47" s="2">
-        <f>K47*P6+K47-0.0004</f>
-        <v>60.497882778324644</v>
+        <f t="shared" si="0"/>
+        <v>60.474096962620024</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.9030373799760927E-3</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="2"/>
+        <v>60.474096962620024</v>
       </c>
       <c r="S47">
         <f>S37+L43*SIN(R46*(PI()/200))</f>
-        <v>32691195.681035489</v>
+        <v>32691195.692734241</v>
       </c>
       <c r="T47">
         <f>T37+L43*COS(R46*(PI()/200))</f>
-        <v>5335935.4588757679</v>
+        <v>5335935.4467244633</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
@@ -12061,8 +12502,16 @@
         <v>37.673000000000002</v>
       </c>
       <c r="L48" s="2">
-        <f>K48*P6+K48-0.0004</f>
-        <v>37.686480863612417</v>
+        <f t="shared" si="0"/>
+        <v>37.671814519359486</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1854806405158962E-3</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="2"/>
+        <v>37.671814519359486</v>
       </c>
       <c r="R48" t="s">
         <v>22</v>
@@ -12079,15 +12528,23 @@
         <v>45.133000000000003</v>
       </c>
       <c r="L49" s="2">
-        <f>K49*P6+K49-0.0004</f>
-        <v>45.14922954947626</v>
+        <f t="shared" si="0"/>
+        <v>45.131579770717799</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.4202292822022124E-3</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>45.131579770717799</v>
       </c>
       <c r="Q49" t="s">
         <v>125</v>
       </c>
       <c r="R49" s="2">
         <f>R36+200+C42-400</f>
-        <v>357.52099744875932</v>
+        <v>357.52096896237867</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.35">
@@ -12101,16 +12558,24 @@
         <v>93.656000000000006</v>
       </c>
       <c r="L50" s="2">
-        <f>K50*P6+K50-0.0004</f>
-        <v>93.690108166657396</v>
+        <f t="shared" si="0"/>
+        <v>93.653052866114507</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.9471338854924422E-3</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="2"/>
+        <v>93.653052866114507</v>
       </c>
       <c r="S50">
         <f>S37+L42*SIN(R49*(PI()/200))</f>
-        <v>32691076.347295664</v>
+        <v>32691076.406060182</v>
       </c>
       <c r="T50">
         <f>T37+L42*COS(R49*(PI()/200))</f>
-        <v>5335954.0316064823</v>
+        <v>5335954.0121843265</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.35">
@@ -12127,8 +12592,16 @@
         <v>90.486999999999995</v>
       </c>
       <c r="L51" s="2">
-        <f>K51*P6+K51-0.0004</f>
-        <v>90.519940527850082</v>
+        <f t="shared" si="0"/>
+        <v>90.484152587085745</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.8474129142452656E-3</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="2"/>
+        <v>90.484152587085745</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.35">
@@ -12147,17 +12620,17 @@
       </c>
       <c r="R54" s="2">
         <f>R40+200+C48-400</f>
-        <v>143.78621153173492</v>
+        <v>143.78620882697192</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S55">
         <f>S41+L48*SIN(R54*(PI()/200))</f>
-        <v>32691201.615573071</v>
+        <v>32691201.625306964</v>
       </c>
       <c r="T55">
         <f>T41+L48*COS(R54*(PI()/200))</f>
-        <v>5335974.4198647374</v>
+        <v>5335974.3921914967</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.35">
@@ -12171,17 +12644,17 @@
       </c>
       <c r="R57" s="2">
         <f>R40+200+C49-400</f>
-        <v>158.75221153173493</v>
+        <v>158.75220882697192</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S58">
         <f>S41+L49*SIN(R57*(PI()/200))</f>
-        <v>32691199.745968465</v>
+        <v>32691199.756382674</v>
       </c>
       <c r="T58">
         <f>T41+L49*COS(R57*(PI()/200))</f>
-        <v>5335962.3451219816</v>
+        <v>5335962.3222108874</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.35">
@@ -12198,17 +12671,17 @@
       </c>
       <c r="R60" s="2">
         <f>R40+200+C50-400</f>
-        <v>287.95621153173488</v>
+        <v>287.95620882697199</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S61">
         <f>S41+L50*SIN(R60*(PI()/200))</f>
-        <v>32691080.478631593</v>
+        <v>32691080.536091328</v>
       </c>
       <c r="T61">
         <f>T41+L50*COS(R60*(PI()/200))</f>
-        <v>5335980.7254091483</v>
+        <v>5335980.6953885909</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.35">
@@ -12234,7 +12707,7 @@
       </c>
       <c r="R63" s="2">
         <f>R40+200+C51-400</f>
-        <v>296.06521153173492</v>
+        <v>296.06520882697191</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.35">
@@ -12249,7 +12722,7 @@
         <v>14.25</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" ref="F64:F70" si="0">E64-D64</f>
+        <f t="shared" ref="F64:F70" si="3">E64-D64</f>
         <v>-1.6106156408568495E-9</v>
       </c>
       <c r="G64" s="20">
@@ -12262,19 +12735,19 @@
       </c>
       <c r="S64">
         <f>S41+L51*SIN(R60*(PI()/200))</f>
-        <v>32691083.592237521</v>
+        <v>32691083.648452483</v>
       </c>
       <c r="T64">
         <f>T41+L51*COS(R60*(PI()/200))</f>
-        <v>5335981.3215810927</v>
+        <v>5335981.2913223328</v>
       </c>
       <c r="U64">
         <f>S31</f>
-        <v>32691082.16418593</v>
+        <v>32691082.221275061</v>
       </c>
       <c r="V64">
         <f>T31</f>
-        <v>5335992.765753055</v>
+        <v>5335992.7307875231</v>
       </c>
       <c r="W64" t="s">
         <v>31</v>
@@ -12286,22 +12759,22 @@
       </c>
       <c r="D65" s="16">
         <f>((T73-T47)^2+(S73-S47)^2)^0.5</f>
-        <v>13.466956755876975</v>
+        <v>13.461842149168385</v>
       </c>
       <c r="E65" s="15">
         <v>12.22</v>
       </c>
       <c r="F65" s="16">
-        <f t="shared" si="0"/>
-        <v>-1.2469567558769743</v>
+        <f t="shared" si="3"/>
+        <v>-1.2418421491683844</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" ref="G65:G75" si="1">0.008*(E65)^0.5+0.0004*E65+0.03</f>
+        <f t="shared" ref="G65:G75" si="4">0.008*(E65)^0.5+0.0004*E65+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="H65" s="21">
-        <f t="shared" ref="H65:H75" si="2">G65-ABS(F65)</f>
-        <v>-1.1841030626082567</v>
+        <f t="shared" ref="H65:H75" si="5">G65-ABS(F65)</f>
+        <v>-1.1789884558996668</v>
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.35">
@@ -12310,22 +12783,22 @@
       </c>
       <c r="D66" s="2">
         <f>((S47-S50)^2+(T47-T50)^2)^0.5</f>
-        <v>120.7703928399479</v>
+        <v>120.72276880611435</v>
       </c>
       <c r="E66">
         <v>120.83</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9607160052095765E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10723119388565294</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16627016008991771</v>
       </c>
       <c r="H66" s="20">
-        <f t="shared" si="2"/>
-        <v>0.10666300003782195</v>
+        <f t="shared" si="5"/>
+        <v>5.903896620426477E-2</v>
       </c>
       <c r="P66" t="s">
         <v>130</v>
@@ -12337,22 +12810,22 @@
       </c>
       <c r="D67" s="2">
         <f>((S24-S50)^2+(T24-T50)^2)^0.5</f>
-        <v>12.365079182360498</v>
+        <v>12.360171385694644</v>
       </c>
       <c r="E67">
         <v>12.22</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.14507918236049733</v>
+        <f t="shared" si="3"/>
+        <v>-0.14017138569464294</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="H67" s="22">
         <f>G67-ABS(F67)</f>
-        <v>-8.2225489091779666E-2</v>
+        <v>-7.7317692425925275E-2</v>
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.35">
@@ -12361,22 +12834,22 @@
       </c>
       <c r="D68" s="2">
         <f>((S24-S21)^2+(T24-T21)^2)^0.5</f>
-        <v>14.424466381369534</v>
+        <v>14.418746894545299</v>
       </c>
       <c r="E68">
         <v>14.57</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14553361863046632</v>
+        <f t="shared" si="3"/>
+        <v>0.1512531054547015</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.63645354943877E-2</v>
       </c>
       <c r="H68" s="22">
         <f>G68-ABS(F68)</f>
-        <v>-7.9169083136078622E-2</v>
+        <v>-8.4888569960313798E-2</v>
       </c>
       <c r="P68" t="s">
         <v>43</v>
@@ -12388,22 +12861,22 @@
       </c>
       <c r="D69" s="2">
         <f>((S28-S21)^2+(T28-T21)^2)^0.5</f>
-        <v>51.524809405148389</v>
+        <v>51.504076674409333</v>
       </c>
       <c r="E69">
         <v>51.52</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.8094051483857925E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.592332559066989E-2</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10802994702376435</v>
       </c>
       <c r="H69" s="20">
         <f>G69-ABS(F69)</f>
-        <v>0.10322054187537856</v>
+        <v>9.2106621433094463E-2</v>
       </c>
       <c r="P69" t="s">
         <v>131</v>
@@ -12418,22 +12891,22 @@
       </c>
       <c r="D70" s="2">
         <f>((S28-S31)^2+(T28-T31)^2)^0.5</f>
-        <v>14.469172789182094</v>
+        <v>14.463489525652438</v>
       </c>
       <c r="E70">
         <v>14.51</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0827210817905524E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.6510474347561725E-2</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.6277595127585451E-2</v>
       </c>
       <c r="H70" s="20">
         <f>G70-ABS(F70)</f>
-        <v>2.5450384309679927E-2</v>
+        <v>1.9767120780023725E-2</v>
       </c>
       <c r="P70" t="s">
         <v>132</v>
@@ -12449,22 +12922,22 @@
       </c>
       <c r="D71" s="12">
         <f>((S61-S31)^2+(T61-T31)^2)^0.5</f>
-        <v>12.157753691142897</v>
+        <v>12.152805094829105</v>
       </c>
       <c r="E71" s="11">
         <v>12.17</v>
       </c>
       <c r="F71" s="12">
         <f>E71-D71</f>
-        <v>1.2246308857102761E-2</v>
+        <v>1.7194905170894614E-2</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2776421668019847E-2</v>
       </c>
       <c r="H71" s="23">
-        <f t="shared" si="2"/>
-        <v>5.0530112810917086E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.5581516497125232E-2</v>
       </c>
       <c r="P71" t="s">
         <v>133</v>
@@ -12480,22 +12953,22 @@
       </c>
       <c r="D72" s="12">
         <f>((S61-S58)^2+(T61-T58)^2)^0.5</f>
-        <v>120.67531893781634</v>
+        <v>120.62773946162923</v>
       </c>
       <c r="E72" s="11">
         <v>120.8</v>
       </c>
       <c r="F72" s="12">
         <f>E72-D72</f>
-        <v>0.12468106218365449</v>
+        <v>0.17226053837076449</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16624724264981816</v>
       </c>
       <c r="H72" s="23">
-        <f t="shared" si="2"/>
-        <v>4.1566180466163671E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.0132957209463322E-3</v>
       </c>
       <c r="P72" t="s">
         <v>134</v>
@@ -12514,30 +12987,30 @@
       </c>
       <c r="D73" s="12">
         <f>((S55-S58)^2+(T55-T58)^2)^0.5</f>
-        <v>12.218626518699654</v>
+        <v>12.213816353160853</v>
       </c>
       <c r="E73" s="11">
         <v>12.17</v>
       </c>
       <c r="F73" s="12">
         <f>E73-D73</f>
-        <v>-4.8626518699654397E-2</v>
+        <v>-4.3816353160853083E-2</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2776421668019847E-2</v>
       </c>
       <c r="H73" s="23">
-        <f t="shared" si="2"/>
-        <v>1.4149902968365449E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.8960068507166764E-2</v>
       </c>
       <c r="S73">
         <f>S18+Q69*SIN(R72*(PI()/200))</f>
-        <v>32691193.904290069</v>
+        <v>32691193.910754651</v>
       </c>
       <c r="T73">
         <f>T18+Q69*COS(R72*(PI()/200))</f>
-        <v>5335922.1096398355</v>
+        <v>5335922.1033462258</v>
       </c>
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.35">
@@ -12546,22 +13019,22 @@
       </c>
       <c r="D74" s="19">
         <f>((S55-S81)^2+(T55-T81)^2)^0.5</f>
-        <v>21.407167522749091</v>
+        <v>21.404786982096311</v>
       </c>
       <c r="E74" s="18">
         <v>14.35</v>
       </c>
       <c r="F74" s="19">
         <f>E74-D74</f>
-        <v>-7.0571675227490918</v>
+        <v>-7.0547869820963118</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.6045115079801292E-2</v>
       </c>
       <c r="H74" s="21">
-        <f t="shared" si="2"/>
-        <v>-6.9911224076692902</v>
+        <f t="shared" si="5"/>
+        <v>-6.9887418670165102</v>
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.35">
@@ -12570,22 +13043,22 @@
       </c>
       <c r="D75" s="19">
         <f>((S18-S81)^2+(T18-T81)^2)^0.5</f>
-        <v>41.420295825666322</v>
+        <v>41.405205296454817</v>
       </c>
       <c r="E75" s="18">
         <v>51.69</v>
       </c>
       <c r="F75" s="17">
         <f>E75-D75</f>
-        <v>10.269704174333675</v>
+        <v>10.284794703545181</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10819260629765981</v>
       </c>
       <c r="H75" s="21">
-        <f t="shared" si="2"/>
-        <v>-10.161511568036016</v>
+        <f t="shared" si="5"/>
+        <v>-10.176602097247521</v>
       </c>
       <c r="P75" t="s">
         <v>40</v>
@@ -12625,7 +13098,7 @@
       </c>
       <c r="R79" s="2">
         <f>R57-Q78</f>
-        <v>103.53080213643861</v>
+        <v>103.5307994316756</v>
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.35">
@@ -12640,11 +13113,11 @@
     <row r="81" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S81">
         <f>S58+Q80*SIN(R79*(PI()/200))</f>
-        <v>32691218.532759439</v>
+        <v>32691218.543173693</v>
       </c>
       <c r="T81">
         <f>T58+Q80*COS(R79*(PI()/200))</f>
-        <v>5335961.3021047637</v>
+        <v>5335961.2791944677</v>
       </c>
     </row>
   </sheetData>
@@ -12658,8 +13131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
   <dimension ref="A2:AC81"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17:AA23"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
